--- a/public/files/Data_By_Towns_Index/Camden/Voorhees Township.xlsx
+++ b/public/files/Data_By_Towns_Index/Camden/Voorhees Township.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>39.8602052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.923952</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>39.865287</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.9362993</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Dave</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>39.8539079</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.9717299</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>39.845809</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-75.00100979999999</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>39.8636132</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.9308159</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>39.8428294</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74.99720259999999</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -629,9 +680,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>39.84738220000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-74.9440252</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,9 +711,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>39.8527057</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-74.94129939999999</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,9 +742,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>39.8590912</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-74.93217749999999</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,9 +773,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>39.8525816</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-74.991322</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -729,9 +804,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>39.8431807</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-74.951465</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -754,9 +835,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>39.86726669999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-74.93100489999999</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,9 +866,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>39.8630167</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-74.93874559999999</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -804,9 +897,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>39.8637913</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-74.94212090000001</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -829,9 +928,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>39.8583473</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-74.93815189999999</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -854,9 +959,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>39.8341921</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-74.9178568</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -879,9 +990,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>39.8527266</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-74.9464799</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -904,9 +1021,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>39.8523082</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-74.9878748</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -929,9 +1052,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>39.8129361</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-74.9134861</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -954,9 +1083,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>39.8123666</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-74.9126436</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -979,9 +1114,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>39.8537367</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-74.98677789999999</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1004,9 +1145,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>39.8606473</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-74.94081509999999</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1029,9 +1176,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>39.86323429999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-74.938208</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1054,9 +1207,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>39.854198</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-74.99543129999999</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1079,9 +1238,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>39.818719</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-74.9425859</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1104,9 +1269,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>39.8426355</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-74.99838769999999</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1129,9 +1300,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>39.8526517</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-74.9931204</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1154,9 +1331,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>39.84280529999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-74.9986574</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,9 +1362,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>39.8546519</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-74.99546800000002</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1204,9 +1393,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>39.8386219</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-74.9879938</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1229,9 +1424,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>39.8189897</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-74.94330429999999</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1254,9 +1455,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>39.8609282</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-74.93621689999999</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1279,9 +1486,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>39.8386885</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-74.9406602</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1304,9 +1517,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>39.86254479999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-74.9407044</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1329,9 +1548,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>39.8599392</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-74.9615232</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1354,9 +1579,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>39.861525</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-74.94131349999999</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1379,9 +1610,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F38" t="n">
+        <v>39.8642433</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-74.9308449</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1404,9 +1641,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>39.8601342</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-74.934072</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1429,9 +1672,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>39.8545005</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-74.9918608</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1454,9 +1703,15 @@
           <t>Mistry</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>39.8579409</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-75.0029277</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1479,9 +1734,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>39.8189664</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-74.91861779999999</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1504,9 +1765,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F43" t="n">
+        <v>39.861973</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-74.9415202</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1529,9 +1796,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>39.8462966</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-75.002313</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1554,9 +1827,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>39.8491836</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-74.95746339999999</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1579,9 +1858,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>39.8524833</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-74.9785775</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1604,9 +1889,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F47" t="n">
+        <v>39.8379705</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-74.9317569</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1629,9 +1920,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>39.8512365</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-74.94280289999999</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1654,9 +1951,15 @@
           <t>Modi</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>39.8527622</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-74.9902711</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1679,9 +1982,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>39.8635299</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-74.9378899</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1704,9 +2013,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>39.8537417</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-74.94521189999999</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1729,9 +2044,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F52" t="n">
+        <v>39.85772499999999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-74.99458190000001</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1754,9 +2075,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>39.8577275</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-74.9944972</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1779,9 +2106,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>39.8340047</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-75.00467499999999</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -1804,9 +2137,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>39.8352389</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-74.92873399999999</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1829,9 +2168,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>39.84898</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-74.9938794</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1854,9 +2199,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>39.8453977</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-75.00127329999999</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1879,9 +2230,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>39.8626812</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-74.9390757</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1904,9 +2261,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F59" t="n">
+        <v>39.836906</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-74.9325135</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1929,9 +2292,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>39.8489624</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-74.99696850000001</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1954,9 +2323,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>39.8176451</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-74.9133186</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1979,9 +2354,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>39.8395816</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-75.00272369999999</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2004,9 +2385,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>39.8601045</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-74.9325492</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2029,9 +2416,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>39.8605544</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-74.9322028</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2054,9 +2447,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F65" t="n">
+        <v>39.8649622</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-74.9266622</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2079,9 +2478,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>39.8531692</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-74.9851336</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2104,9 +2509,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>39.8553359</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-74.9928563</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2129,9 +2540,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>39.8543791</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-74.98561149999999</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2154,9 +2571,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>39.86520609999999</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-74.9308434</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2179,9 +2602,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>39.8214439</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-74.9370627</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2204,9 +2633,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>39.8661199</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-74.9351248</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2229,9 +2664,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>39.8544816</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-74.9864889</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2254,9 +2695,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F73" t="n">
+        <v>39.8219222</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-74.9374844</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2279,9 +2726,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F74" t="n">
+        <v>39.8527739</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-74.985584</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2304,9 +2757,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>39.8678991</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-74.9279044</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2329,9 +2788,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>39.8537574</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-74.9281237</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2354,9 +2819,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F77" t="n">
+        <v>39.8700114</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-74.9355827</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -2379,9 +2850,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F78" t="n">
+        <v>39.845855</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-74.9991885</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2404,9 +2881,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F79" t="n">
+        <v>39.8432127</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-74.9983926</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2429,9 +2912,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F80" t="n">
+        <v>39.8381744</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-75.0007452</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2454,9 +2943,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>39.8711135</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-74.93494269999999</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2479,9 +2974,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F82" t="n">
+        <v>39.8203542</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-74.9341034</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2504,9 +3005,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>39.8558127</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-74.94439299999999</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2529,9 +3036,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>39.845289</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-75.003165</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2554,9 +3067,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F85" t="n">
+        <v>39.8602758</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-74.95431049999999</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2579,9 +3098,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F86" t="n">
+        <v>39.8438149</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-74.9989684</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2604,9 +3129,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F87" t="n">
+        <v>39.8541331</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-74.9392045</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2629,9 +3160,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F88" t="n">
+        <v>39.82267299999999</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-74.9342101</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2654,9 +3191,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F89" t="n">
+        <v>39.850341</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-75.0024461</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2679,9 +3222,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F90" t="n">
+        <v>39.8372607</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-74.9289749</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2704,9 +3253,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F91" t="n">
+        <v>39.843938</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-75.00100499999999</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2729,9 +3284,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F92" t="n">
+        <v>39.84964</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-74.947183</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2754,9 +3315,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F93" t="n">
+        <v>39.8623367</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-74.939441</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2779,9 +3346,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F94" t="n">
+        <v>39.854512</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-74.99220009999999</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2804,9 +3377,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F95" t="n">
+        <v>39.8560395</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-74.9955418</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2829,9 +3408,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>39.8731208</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-74.92823560000001</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2854,9 +3439,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F97" t="n">
+        <v>39.8391089</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-74.9463583</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2879,9 +3470,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F98" t="n">
+        <v>39.845855</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-74.9991885</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2904,9 +3501,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F99" t="n">
+        <v>39.850341</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-75.0024461</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2929,9 +3532,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F100" t="n">
+        <v>39.8479486</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-74.9916046</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -2954,9 +3563,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F101" t="n">
+        <v>39.8625553</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-74.9397934</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2979,9 +3594,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F102" t="n">
+        <v>39.8466574</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-75.00299179999999</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -3004,9 +3625,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F103" t="n">
+        <v>39.8486277</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-74.9966276</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -3029,9 +3656,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F104" t="n">
+        <v>39.853412</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-74.99344600000001</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -3054,9 +3687,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F105" t="n">
+        <v>39.8582967</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-74.94492799999999</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -3079,9 +3718,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F106" t="n">
+        <v>39.8386588</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-74.98833809999999</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -3104,9 +3749,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F107" t="n">
+        <v>39.8526835</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-74.94056259999999</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -3129,9 +3780,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F108" t="n">
+        <v>39.8538581</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-74.9855146</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -3154,9 +3811,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F109" t="n">
+        <v>39.85416070000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-74.9851833</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -3179,9 +3842,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F110" t="n">
+        <v>39.8634967</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-74.9309722</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -3204,9 +3873,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F111" t="n">
+        <v>39.8534595</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-74.99062309999999</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -3229,9 +3904,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F112" t="n">
+        <v>39.8552592</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-74.99498249999999</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -3254,9 +3935,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F113" t="n">
+        <v>39.8380127</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-74.9942865</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -3279,9 +3966,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F114" t="n">
+        <v>39.8429388</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-74.9542029</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -3304,9 +3997,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F115" t="n">
+        <v>39.8551598</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-75.01106279999999</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -3329,9 +4028,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F116" t="n">
+        <v>39.8678488</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-74.93171029999999</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -3354,9 +4059,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F117" t="n">
+        <v>39.8662567</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-74.9324553</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -3379,9 +4090,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F118" t="n">
+        <v>39.8441803</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-74.9970953</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -3404,9 +4121,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F119" t="n">
+        <v>39.8632068</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-74.93236279999999</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -3429,9 +4152,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F120" t="n">
+        <v>39.85407259999999</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-74.987475</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -3454,9 +4183,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F121" t="n">
+        <v>39.8498582</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-75.013401</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -3479,9 +4214,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F122" t="n">
+        <v>39.8544805</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-74.9867428</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -3504,9 +4245,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F123" t="n">
+        <v>39.8536128</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-74.99443480000001</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -3529,9 +4276,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F124" t="n">
+        <v>39.8594456</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-74.9314236</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -3554,9 +4307,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F125" t="n">
+        <v>39.8691259</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-74.9281958</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -3579,9 +4338,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F126" t="n">
+        <v>39.846284</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-75.00229039999999</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -3604,9 +4369,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F127" t="n">
+        <v>39.8448913</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-74.943465</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -3629,9 +4400,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F128" t="n">
+        <v>39.8341207</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-74.92819039999999</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -3654,9 +4431,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F129" t="n">
+        <v>39.8591701</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-74.9984042</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -3679,9 +4462,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F130" t="n">
+        <v>39.8457259</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-75.0005164</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -3704,9 +4493,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F131" t="n">
+        <v>39.8505382</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-74.9485737</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -3729,9 +4524,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F132" t="n">
+        <v>39.8617776</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-74.93594179999999</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -3754,9 +4555,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F133" t="n">
+        <v>39.85167149999999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-74.97774969999999</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
@@ -3779,9 +4586,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F134" t="n">
+        <v>39.8383618</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-74.99089699999999</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
@@ -3804,9 +4617,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F135" t="n">
+        <v>39.8521552</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-74.99356560000001</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
@@ -3829,9 +4648,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F136" t="n">
+        <v>39.8656353</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-74.9335214</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -3854,9 +4679,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F137" t="n">
+        <v>39.8642087</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-74.93257989999999</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
@@ -3879,9 +4710,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F138" t="n">
+        <v>39.8546398</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-75.00345040000001</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -3904,9 +4741,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F139" t="n">
+        <v>39.8522562</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-74.9780475</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
@@ -3929,9 +4772,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F140" t="n">
+        <v>39.8219661</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-74.91937009999999</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -3954,9 +4803,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F141" t="n">
+        <v>39.8585779</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-74.9244886</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -3979,9 +4834,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F142" t="n">
+        <v>39.8615163</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-74.94206749999999</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -4004,9 +4865,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F143" t="n">
+        <v>39.8509615</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-74.94716</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -4029,9 +4896,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F144" t="n">
+        <v>39.8547574</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-74.99937299999999</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
@@ -4054,9 +4927,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F145" t="n">
+        <v>39.8576517</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-74.93788839999999</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
@@ -4079,9 +4958,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F146" t="n">
+        <v>39.862386</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-74.9555271</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
@@ -4104,9 +4989,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F147" t="n">
+        <v>39.8658675</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-74.9314016</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
@@ -4129,9 +5020,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F148" t="n">
+        <v>39.820561</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-74.9183791</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
@@ -4154,9 +5051,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F149" t="n">
+        <v>39.863193</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-74.93033059999999</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
@@ -4179,9 +5082,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F150" t="n">
+        <v>39.85988010000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-74.93654549999999</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
@@ -4204,9 +5113,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F151" t="n">
+        <v>39.8505198</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-75.0126179</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
@@ -4229,9 +5144,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F152" t="n">
+        <v>39.8416096</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-74.99748009999999</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
@@ -4254,9 +5175,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F153" t="n">
+        <v>39.867872</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-74.92739</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
@@ -4279,9 +5206,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F154" t="n">
+        <v>39.84663</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-74.93554639999999</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
@@ -4304,9 +5237,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F155" t="n">
+        <v>39.8631797</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-74.9265973</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
@@ -4329,9 +5268,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F156" t="n">
+        <v>39.8407157</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-74.9469165</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
@@ -4354,9 +5299,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F157" t="n">
+        <v>39.8671298</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-74.93291080000002</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
@@ -4379,9 +5330,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F158" t="n">
+        <v>39.8528756</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-74.9278308</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
@@ -4404,9 +5361,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F159" t="n">
+        <v>39.8663124</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-74.9316532</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
@@ -4429,9 +5392,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F160" t="n">
+        <v>39.8369042</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-74.9732952</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
@@ -4454,9 +5423,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F161" t="n">
+        <v>39.8559199</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-74.99576119999999</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
@@ -4479,9 +5454,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F162" t="n">
+        <v>39.86468139999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-74.92663999999999</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
@@ -4504,9 +5485,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F163" t="n">
+        <v>39.8634843</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-74.92733939999999</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
@@ -4529,9 +5516,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F164" t="n">
+        <v>39.8572201</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-75.02535739999999</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
@@ -4554,9 +5547,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F165" t="n">
+        <v>39.8464079</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-75.002517</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
@@ -4579,9 +5578,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F166" t="n">
+        <v>39.85985429999999</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-74.9379158</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
@@ -4604,9 +5609,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F167" t="n">
+        <v>39.8612139</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-74.9416634</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
@@ -4629,9 +5640,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F168" t="n">
+        <v>39.8679155</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-74.93401179999999</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
@@ -4654,9 +5671,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F169" t="n">
+        <v>39.8283747</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-74.94440659999999</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
@@ -4679,9 +5702,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F170" t="n">
+        <v>39.8588682</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-74.93985789999999</v>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
@@ -4704,9 +5733,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F171" t="n">
+        <v>39.8682569</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-74.93163210000002</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
@@ -4729,9 +5764,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F172" t="n">
+        <v>39.8536515</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-74.9853562</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
@@ -4754,9 +5795,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F173" t="n">
+        <v>39.8692005</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-74.92906599999999</v>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
@@ -4779,9 +5826,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F174" t="n">
+        <v>39.8524626</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-74.92822989999999</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
@@ -4804,9 +5857,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F175" t="n">
+        <v>39.8494201</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-75.01010100000001</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
@@ -4829,9 +5888,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F176" t="n">
+        <v>39.8549082</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-74.97486929999999</v>
+      </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
@@ -4854,9 +5919,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F177" t="n">
+        <v>39.86495559999999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-74.9350283</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
@@ -4879,9 +5950,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F178" t="n">
+        <v>39.8507981</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-75.00746149999999</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
@@ -4904,9 +5981,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F179" t="n">
+        <v>39.85838409999999</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-74.94193129999999</v>
+      </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
@@ -4929,9 +6012,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F180" t="n">
+        <v>39.8540932</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-74.98782779999999</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
@@ -4954,9 +6043,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F181" t="n">
+        <v>39.8533298</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-74.9848678</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
@@ -4979,9 +6074,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F182" t="n">
+        <v>39.8532967</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-74.9849911</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
@@ -5004,9 +6105,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F183" t="n">
+        <v>39.86541649999999</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-74.9258712</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
@@ -5029,9 +6136,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F184" t="n">
+        <v>39.8478036</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-74.94853929999999</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
@@ -5054,9 +6167,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F185" t="n">
+        <v>39.8707444</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-74.9352854</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
@@ -5079,9 +6198,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F186" t="n">
+        <v>39.865792</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-74.94345299999999</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
@@ -5104,9 +6229,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F187" t="n">
+        <v>39.8523176</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-74.94494349999999</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
@@ -5129,9 +6260,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F188" t="n">
+        <v>39.8448153</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-74.94672079999999</v>
+      </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
@@ -5154,9 +6291,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F189" t="n">
+        <v>39.8711666</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-74.9355083</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
@@ -5179,9 +6322,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F190" t="n">
+        <v>39.8651285</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-74.93448889999999</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
@@ -5204,9 +6353,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F191" t="n">
+        <v>39.8429996</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-74.9974515</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
@@ -5229,9 +6384,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F192" t="n">
+        <v>39.8645945</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-74.93861219999999</v>
+      </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
@@ -5254,9 +6415,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F193" t="n">
+        <v>39.852102</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-74.99087399999999</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
@@ -5279,9 +6446,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F194" t="n">
+        <v>39.8544365</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-74.9858852</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
@@ -5304,9 +6477,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F195" t="n">
+        <v>39.842793</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-75.0008591</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
@@ -5329,9 +6508,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F196" t="n">
+        <v>39.8638683</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-74.9347413</v>
+      </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
@@ -5354,9 +6539,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F197" t="n">
+        <v>39.8595188</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-74.9309722</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
@@ -5379,9 +6570,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F198" t="n">
+        <v>39.841352</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-74.99799</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
@@ -5404,9 +6601,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F199" t="n">
+        <v>39.8522618</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-74.9888744</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
@@ -5429,9 +6632,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F200" t="n">
+        <v>39.8202092</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-74.9473876</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
@@ -5454,9 +6663,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F201" t="n">
+        <v>39.8511049</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-74.99235709999999</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="A202" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
@@ -5479,9 +6694,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F202" t="n">
+        <v>39.852826</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-74.9926947</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="A203" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
@@ -5504,9 +6725,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F203" t="n">
+        <v>39.846285</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-75.00023800000001</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="A204" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
@@ -5529,9 +6756,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F204" t="n">
+        <v>39.8541098</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-74.9927441</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="A205" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
@@ -5554,9 +6787,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F205" t="n">
+        <v>39.852657</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-74.98959019999999</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="A206" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
@@ -5579,9 +6818,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F206" t="n">
+        <v>39.8634956</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-74.92503859999999</v>
+      </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="A207" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
@@ -5604,9 +6849,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F207" t="n">
+        <v>39.8589174</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-75.012169</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="A208" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
@@ -5629,9 +6880,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F208" t="n">
+        <v>39.863942</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-74.9446957</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="A209" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
@@ -5654,9 +6911,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F209" t="n">
+        <v>39.85337579999999</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-74.9924042</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="A210" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
@@ -5679,9 +6942,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F210" t="n">
+        <v>39.8597554</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-74.94153299999999</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="A211" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
@@ -5704,9 +6973,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F211" t="n">
+        <v>39.8510014</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-75.0131272</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="A212" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
@@ -5729,9 +7004,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F212" t="n">
+        <v>39.8643971</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-74.9383047</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="A213" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
@@ -5754,9 +7035,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F213" t="n">
+        <v>39.8634599</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-74.9411611</v>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="A214" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
@@ -5779,9 +7066,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F214" t="n">
+        <v>39.8503336</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-75.0125338</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="A215" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
@@ -5804,9 +7097,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F215" t="n">
+        <v>39.8432882</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-74.99706329999999</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="A216" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
@@ -5829,9 +7128,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F216" t="n">
+        <v>39.8565035</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-74.99233149999999</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="A217" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
@@ -5854,9 +7159,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F217" t="n">
+        <v>39.8370008</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-74.9296038</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="A218" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
@@ -5879,9 +7190,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F218" t="n">
+        <v>39.8493631</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-74.96103359999999</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="A219" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
@@ -5904,9 +7221,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F219" t="n">
+        <v>39.8521947</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-74.9874028</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n">
+      <c r="A220" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
@@ -5929,9 +7252,15 @@
           <t>Sheth</t>
         </is>
       </c>
+      <c r="F220" t="n">
+        <v>39.8177716</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-74.9464242</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n">
+      <c r="A221" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
@@ -5954,9 +7283,15 @@
           <t>Sheth</t>
         </is>
       </c>
+      <c r="F221" t="n">
+        <v>39.8483882</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-74.9447467</v>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n">
+      <c r="A222" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
@@ -5979,9 +7314,15 @@
           <t>Thakkar</t>
         </is>
       </c>
+      <c r="F222" t="n">
+        <v>39.85297000000001</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-74.98665799999999</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n">
+      <c r="A223" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
@@ -6004,9 +7345,15 @@
           <t>Soni</t>
         </is>
       </c>
+      <c r="F223" t="n">
+        <v>39.8192163</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-74.9145137</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="A224" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
@@ -6029,9 +7376,15 @@
           <t>Kadakia</t>
         </is>
       </c>
+      <c r="F224" t="n">
+        <v>39.8541358</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-74.98512459999999</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
+      <c r="A225" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
@@ -6054,9 +7407,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F225" t="n">
+        <v>39.8527545</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-74.97787579999999</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n">
+      <c r="A226" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
@@ -6079,9 +7438,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F226" t="n">
+        <v>39.8618077</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-74.94167849999999</v>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
+      <c r="A227" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="inlineStr">
@@ -6104,9 +7469,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F227" t="n">
+        <v>39.8425793</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-74.9973909</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n">
+      <c r="A228" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
@@ -6129,9 +7500,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F228" t="n">
+        <v>39.85349160000001</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-74.9918911</v>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n">
+      <c r="A229" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
@@ -6154,9 +7531,15 @@
           <t>Doshi</t>
         </is>
       </c>
+      <c r="F229" t="n">
+        <v>39.8182386</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-74.9201693</v>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
+      <c r="A230" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
@@ -6179,9 +7562,15 @@
           <t>Doshi</t>
         </is>
       </c>
+      <c r="F230" t="n">
+        <v>39.84335009999999</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-74.94736709999999</v>
+      </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="A231" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
@@ -6204,9 +7593,15 @@
           <t>Doshi</t>
         </is>
       </c>
+      <c r="F231" t="n">
+        <v>39.851872</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-74.94113059999999</v>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n">
+      <c r="A232" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
@@ -6229,9 +7624,15 @@
           <t>Doshi</t>
         </is>
       </c>
+      <c r="F232" t="n">
+        <v>39.8521259</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-74.9412676</v>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n">
+      <c r="A233" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
@@ -6254,9 +7655,15 @@
           <t>Doshi</t>
         </is>
       </c>
+      <c r="F233" t="n">
+        <v>39.8297542</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-74.91628729999999</v>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="A234" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
@@ -6279,9 +7686,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F234" t="n">
+        <v>39.8514199</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-74.99319109999999</v>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="A235" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
@@ -6304,9 +7717,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F235" t="n">
+        <v>39.8480843</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-74.9446421</v>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="A236" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="inlineStr">
@@ -6329,9 +7748,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F236" t="n">
+        <v>39.8337829</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-74.94823389999999</v>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n">
+      <c r="A237" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="inlineStr">
@@ -6354,9 +7779,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F237" t="n">
+        <v>39.8448771</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-75.0024461</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
+      <c r="A238" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="inlineStr">
@@ -6379,9 +7810,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F238" t="n">
+        <v>39.8430692</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-75.0020853</v>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
+      <c r="A239" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
@@ -6404,9 +7841,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F239" t="n">
+        <v>39.8674862</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-74.92752179999999</v>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n">
+      <c r="A240" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
@@ -6429,9 +7872,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F240" t="n">
+        <v>39.8512357</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-74.9760654</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
+      <c r="A241" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
@@ -6454,9 +7903,15 @@
           <t>Panchal</t>
         </is>
       </c>
+      <c r="F241" t="n">
+        <v>39.8442296</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-75.0012425</v>
+      </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="A242" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
@@ -6479,9 +7934,15 @@
           <t>Panchal</t>
         </is>
       </c>
+      <c r="F242" t="n">
+        <v>39.8503507</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-75.0138575</v>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="A243" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
@@ -6504,9 +7965,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F243" t="n">
+        <v>39.8695177</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-74.9319419</v>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="n">
+      <c r="A244" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
@@ -6529,9 +7996,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F244" t="n">
+        <v>39.84687</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-74.938192</v>
+      </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n">
+      <c r="A245" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
@@ -6554,9 +8027,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F245" t="n">
+        <v>39.8380708</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-74.9455451</v>
+      </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n">
+      <c r="A246" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
@@ -6579,9 +8058,15 @@
           <t>Raval</t>
         </is>
       </c>
+      <c r="F246" t="n">
+        <v>39.8647207</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-74.93381429999999</v>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n">
+      <c r="A247" t="n">
         <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
@@ -6604,9 +8089,15 @@
           <t>Raval</t>
         </is>
       </c>
+      <c r="F247" t="n">
+        <v>39.8550295</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-75.0040123</v>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n">
+      <c r="A248" t="n">
         <v>246</v>
       </c>
       <c r="B248" t="inlineStr">
@@ -6629,9 +8120,15 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F248" t="n">
+        <v>39.8640524</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-74.92655409999999</v>
+      </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n">
+      <c r="A249" t="n">
         <v>247</v>
       </c>
       <c r="B249" t="inlineStr">
@@ -6654,9 +8151,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F249" t="n">
+        <v>39.8647263</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-74.9352724</v>
+      </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n">
+      <c r="A250" t="n">
         <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
@@ -6679,9 +8182,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F250" t="n">
+        <v>39.8502147</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-74.9568273</v>
+      </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="A251" t="n">
         <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
@@ -6704,9 +8213,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F251" t="n">
+        <v>39.8264284</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-74.9479786</v>
+      </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n">
+      <c r="A252" t="n">
         <v>250</v>
       </c>
       <c r="B252" t="inlineStr">
@@ -6729,9 +8244,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F252" t="n">
+        <v>39.8649609</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-74.9377612</v>
+      </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n">
+      <c r="A253" t="n">
         <v>251</v>
       </c>
       <c r="B253" t="inlineStr">
@@ -6754,9 +8275,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F253" t="n">
+        <v>39.8447454</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-74.9389066</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="n">
+      <c r="A254" t="n">
         <v>252</v>
       </c>
       <c r="B254" t="inlineStr">
@@ -6779,9 +8306,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F254" t="n">
+        <v>39.8519136</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-74.9767066</v>
+      </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="A255" t="n">
         <v>253</v>
       </c>
       <c r="B255" t="inlineStr">
@@ -6804,9 +8337,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F255" t="n">
+        <v>39.846097</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-74.999008</v>
+      </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="n">
+      <c r="A256" t="n">
         <v>254</v>
       </c>
       <c r="B256" t="inlineStr">
@@ -6829,9 +8368,15 @@
           <t>Trivedi</t>
         </is>
       </c>
+      <c r="F256" t="n">
+        <v>39.8683015</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-74.9263347</v>
+      </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="n">
+      <c r="A257" t="n">
         <v>255</v>
       </c>
       <c r="B257" t="inlineStr">
@@ -6854,9 +8399,15 @@
           <t>Chauhan</t>
         </is>
       </c>
+      <c r="F257" t="n">
+        <v>39.8613491</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-74.9422124</v>
+      </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="n">
+      <c r="A258" t="n">
         <v>256</v>
       </c>
       <c r="B258" t="inlineStr">
@@ -6879,9 +8430,15 @@
           <t>Chauhan</t>
         </is>
       </c>
+      <c r="F258" t="n">
+        <v>39.8500792</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-75.01299019999999</v>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="n">
+      <c r="A259" t="n">
         <v>257</v>
       </c>
       <c r="B259" t="inlineStr">
@@ -6904,9 +8461,15 @@
           <t>Chauhan</t>
         </is>
       </c>
+      <c r="F259" t="n">
+        <v>39.859722</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-74.93821419999999</v>
+      </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="n">
+      <c r="A260" t="n">
         <v>258</v>
       </c>
       <c r="B260" t="inlineStr">
@@ -6929,9 +8492,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F260" t="n">
+        <v>39.8154153</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-74.94428139999999</v>
+      </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="n">
+      <c r="A261" t="n">
         <v>259</v>
       </c>
       <c r="B261" t="inlineStr">
@@ -6954,9 +8523,15 @@
           <t>Darji</t>
         </is>
       </c>
+      <c r="F261" t="n">
+        <v>39.8646841</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-74.93041459999999</v>
+      </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="n">
+      <c r="A262" t="n">
         <v>260</v>
       </c>
       <c r="B262" t="inlineStr">
@@ -6979,9 +8554,15 @@
           <t>Darji</t>
         </is>
       </c>
+      <c r="F262" t="n">
+        <v>39.8415561</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-74.94217499999999</v>
+      </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="n">
+      <c r="A263" t="n">
         <v>261</v>
       </c>
       <c r="B263" t="inlineStr">
@@ -7004,9 +8585,15 @@
           <t>Darji</t>
         </is>
       </c>
+      <c r="F263" t="n">
+        <v>39.87319189999999</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-74.9278104</v>
+      </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="n">
+      <c r="A264" t="n">
         <v>262</v>
       </c>
       <c r="B264" t="inlineStr">
@@ -7029,9 +8616,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F264" t="n">
+        <v>39.8412617</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-74.92341119999999</v>
+      </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="n">
+      <c r="A265" t="n">
         <v>263</v>
       </c>
       <c r="B265" t="inlineStr">
@@ -7054,9 +8647,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F265" t="n">
+        <v>39.8440544</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-74.920883</v>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="n">
+      <c r="A266" t="n">
         <v>264</v>
       </c>
       <c r="B266" t="inlineStr">
@@ -7079,9 +8678,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F266" t="n">
+        <v>39.8440544</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-74.920883</v>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="n">
+      <c r="A267" t="n">
         <v>265</v>
       </c>
       <c r="B267" t="inlineStr">
@@ -7104,9 +8709,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F267" t="n">
+        <v>39.84326600000001</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-74.91994</v>
+      </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="n">
+      <c r="A268" t="n">
         <v>266</v>
       </c>
       <c r="B268" t="inlineStr">
@@ -7129,9 +8740,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F268" t="n">
+        <v>39.84326600000001</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-74.91994</v>
+      </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="n">
+      <c r="A269" t="n">
         <v>267</v>
       </c>
       <c r="B269" t="inlineStr">
@@ -7154,9 +8771,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F269" t="n">
+        <v>39.8535826</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-74.9928073</v>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="n">
+      <c r="A270" t="n">
         <v>268</v>
       </c>
       <c r="B270" t="inlineStr">
@@ -7178,6 +8801,12 @@
         <is>
           <t>Parikh</t>
         </is>
+      </c>
+      <c r="F270" t="n">
+        <v>39.8188124</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-74.93715379999999</v>
       </c>
     </row>
   </sheetData>
